--- a/data_year/zb/国民经济核算/投入产出基本流量表/中间使用部分/批发零售贸易、住宿和餐饮业.xlsx
+++ b/data_year/zb/国民经济核算/投入产出基本流量表/中间使用部分/批发零售贸易、住宿和餐饮业.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y8"/>
+  <dimension ref="A1:Y4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -558,553 +558,237 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2000年</t>
+          <t>2010年</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5843086.7</v>
+        <v>5901402.35176607</v>
       </c>
       <c r="C2" t="n">
-        <v>808819.62031</v>
+        <v>10863143.7498387</v>
       </c>
       <c r="D2" t="n">
-        <v>9102805</v>
+        <v>25006235.8031267</v>
       </c>
       <c r="E2" t="n">
-        <v>3358018</v>
+        <v>5322716.20574124</v>
       </c>
       <c r="F2" t="n">
-        <v>733633.5</v>
+        <v>1543379.38588046</v>
       </c>
       <c r="G2" t="n">
-        <v>11503534</v>
+        <v>33738121.3405569</v>
       </c>
       <c r="H2" t="n">
-        <v>95807995.42731</v>
+        <v>260710157.582656</v>
       </c>
       <c r="I2" t="n">
-        <v>40165853.1434696</v>
+        <v>132774136.326873</v>
       </c>
       <c r="J2" t="n">
-        <v>5441584.14106135</v>
+        <v>30458423.6029235</v>
       </c>
       <c r="K2" t="n">
-        <v>73534754.6683888</v>
+        <v>386233884.721886</v>
       </c>
       <c r="L2" t="n">
-        <v>169342750.095699</v>
+        <v>646944042.3045419</v>
       </c>
       <c r="M2" t="n">
-        <v>14618017</v>
+        <v>15900130.5612101</v>
       </c>
       <c r="N2" t="n">
-        <v>18537801.461404</v>
+        <v>92523028.0839543</v>
       </c>
       <c r="O2" t="n">
-        <v>9389515.9224538</v>
+        <v>130478296.708135</v>
       </c>
       <c r="P2" t="n">
-        <v>13503216.33</v>
+        <v>11536557.8256662</v>
       </c>
       <c r="Q2" t="n">
-        <v>3664432.6</v>
+        <v>2418364.39696661</v>
       </c>
       <c r="R2" t="n">
-        <v>2063585</v>
+        <v>10769412.2945327</v>
       </c>
       <c r="S2" t="n">
-        <v>2225673.3</v>
+        <v>5945095.72991625</v>
       </c>
       <c r="T2" t="n">
-        <v>5328325.54</v>
+        <v>35787666.9141248</v>
       </c>
       <c r="U2" t="n">
-        <v>189162.137</v>
+        <v>267431.407089297</v>
       </c>
       <c r="V2" t="n">
-        <v>650552.8</v>
+        <v>623433.5248962149</v>
       </c>
       <c r="W2" t="n">
-        <v>6974741</v>
+        <v>17458923.1893032</v>
       </c>
       <c r="X2" t="n">
-        <v>871392.9</v>
+        <v>552713.307199797</v>
       </c>
       <c r="Y2" t="n">
-        <v>14369000</v>
+        <v>77075429.5948409</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2002年</t>
+          <t>2012年</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>7801290.35109917</v>
+        <v>8847282.92059526</v>
       </c>
       <c r="C3" t="n">
-        <v>5026126.71908495</v>
+        <v>11528640.3195712</v>
       </c>
       <c r="D3" t="n">
-        <v>12693379.5404629</v>
+        <v>26006482.9022104</v>
       </c>
       <c r="E3" t="n">
-        <v>3987849.2810897</v>
+        <v>3532969.17971969</v>
       </c>
       <c r="F3" t="n">
-        <v>2304846.24965321</v>
+        <v>2775646.24890472</v>
       </c>
       <c r="G3" t="n">
-        <v>14608221.4750167</v>
+        <v>102216945.793162</v>
       </c>
       <c r="H3" t="n">
-        <v>121152598.993441</v>
+        <v>361218975.291718</v>
       </c>
       <c r="I3" t="n">
-        <v>49227169.4124412</v>
+        <v>211793058.577217</v>
       </c>
       <c r="J3" t="n">
-        <v>10020800.836907</v>
+        <v>38607529.0886709</v>
       </c>
       <c r="K3" t="n">
-        <v>121757419.091141</v>
+        <v>593679321.910817</v>
       </c>
       <c r="L3" t="n">
-        <v>242910018.084582</v>
+        <v>954898297.202534</v>
       </c>
       <c r="M3" t="n">
-        <v>12949236.1664941</v>
+        <v>38752735.9803848</v>
       </c>
       <c r="N3" t="n">
-        <v>40432339.5542618</v>
+        <v>171664854.441928</v>
       </c>
       <c r="O3" t="n">
-        <v>22077109.2875308</v>
+        <v>171613879.803</v>
       </c>
       <c r="P3" t="n">
-        <v>14273143.1436847</v>
+        <v>12855928.0655874</v>
       </c>
       <c r="Q3" t="n">
-        <v>2911038.17015081</v>
+        <v>3573268.74684359</v>
       </c>
       <c r="R3" t="n">
-        <v>4859462.19878829</v>
+        <v>10106857.4500028</v>
       </c>
       <c r="S3" t="n">
-        <v>2058539.08342148</v>
+        <v>3203238.23166723</v>
       </c>
       <c r="T3" t="n">
-        <v>6678044.74947989</v>
+        <v>32417396.3174458</v>
       </c>
       <c r="U3" t="n">
-        <v>497301.23895165</v>
+        <v>39254.652675929</v>
       </c>
       <c r="V3" t="n">
-        <v>772648.459217962</v>
+        <v>392416.565620165</v>
       </c>
       <c r="W3" t="n">
-        <v>11228353.8616837</v>
+        <v>31590409.9673733</v>
       </c>
       <c r="X3" t="n">
-        <v>398615.153447701</v>
+        <v>148284.284278398</v>
       </c>
       <c r="Y3" t="n">
-        <v>18104503.1517139</v>
+        <v>73231217.6656754</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2005年</t>
+          <t>2015年</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>9473663.67440976</v>
+        <v>12779649.307012</v>
       </c>
       <c r="C4" t="n">
-        <v>7791721.94299364</v>
+        <v>17913782.3077949</v>
       </c>
       <c r="D4" t="n">
-        <v>18755112.9211884</v>
+        <v>35940051.8881274</v>
       </c>
       <c r="E4" t="n">
-        <v>5814484.57416391</v>
+        <v>4163458.12078695</v>
       </c>
       <c r="F4" t="n">
-        <v>3939444.9211622</v>
+        <v>3477952.32957206</v>
       </c>
       <c r="G4" t="n">
-        <v>19209709.2809412</v>
+        <v>199752874.889128</v>
       </c>
       <c r="H4" t="n">
-        <v>173032966.271275</v>
+        <v>567571358.612422</v>
       </c>
       <c r="I4" t="n">
-        <v>44558721.18674</v>
+        <v>364285622.608139</v>
       </c>
       <c r="J4" t="n">
-        <v>13929973.4523964</v>
+        <v>38885929.3660129</v>
       </c>
       <c r="K4" t="n">
-        <v>167865983.480884</v>
+        <v>783404308.911333</v>
       </c>
       <c r="L4" t="n">
-        <v>340898949.752159</v>
+        <v>1350975667.52376</v>
       </c>
       <c r="M4" t="n">
-        <v>16441781.1259077</v>
+        <v>58011486.1657954</v>
       </c>
       <c r="N4" t="n">
-        <v>34376129.8530134</v>
+        <v>164099052.157782</v>
       </c>
       <c r="O4" t="n">
-        <v>75001158.98873439</v>
+        <v>216133704.7794</v>
       </c>
       <c r="P4" t="n">
-        <v>18265534.1776319</v>
+        <v>21301494.0153628</v>
       </c>
       <c r="Q4" t="n">
-        <v>5551993.33655738</v>
+        <v>3365905.0485397</v>
       </c>
       <c r="R4" t="n">
-        <v>9505844.802012719</v>
+        <v>11032543.6747755</v>
       </c>
       <c r="S4" t="n">
-        <v>2883661.97744397</v>
+        <v>4215471.37364968</v>
       </c>
       <c r="T4" t="n">
-        <v>15955929.8953027</v>
+        <v>48206065.0485846</v>
       </c>
       <c r="U4" t="n">
-        <v>957765.187038699</v>
+        <v>26612.0678674807</v>
       </c>
       <c r="V4" t="n">
-        <v>1073568.5522229</v>
+        <v>449023.063812559</v>
       </c>
       <c r="W4" t="n">
-        <v>8254225.11939631</v>
+        <v>45711125.9917894</v>
       </c>
       <c r="X4" t="n">
-        <v>665619.8216581281</v>
+        <v>158945.703131913</v>
       </c>
       <c r="Y4" t="n">
-        <v>28492904.9612432</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="inlineStr">
-        <is>
-          <t>2007年</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>7609477.59381251</v>
-      </c>
-      <c r="C5" t="n">
-        <v>11204157.8878524</v>
-      </c>
-      <c r="D5" t="n">
-        <v>17846691.2330256</v>
-      </c>
-      <c r="E5" t="n">
-        <v>4575554.84197051</v>
-      </c>
-      <c r="F5" t="n">
-        <v>1276015.2365869</v>
-      </c>
-      <c r="G5" t="n">
-        <v>28594040.8547607</v>
-      </c>
-      <c r="H5" t="n">
-        <v>207488189.364795</v>
-      </c>
-      <c r="I5" t="n">
-        <v>57264921.0900246</v>
-      </c>
-      <c r="J5" t="n">
-        <v>17640732.715046</v>
-      </c>
-      <c r="K5" t="n">
-        <v>228991578.446603</v>
-      </c>
-      <c r="L5" t="n">
-        <v>436479767.811398</v>
-      </c>
-      <c r="M5" t="n">
-        <v>14074297.6106811</v>
-      </c>
-      <c r="N5" t="n">
-        <v>48203024.4080288</v>
-      </c>
-      <c r="O5" t="n">
-        <v>105882900.233504</v>
-      </c>
-      <c r="P5" t="n">
-        <v>12485288.5428911</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>2674324.93051524</v>
-      </c>
-      <c r="R5" t="n">
-        <v>8886033.700632</v>
-      </c>
-      <c r="S5" t="n">
-        <v>4841810.1388166</v>
-      </c>
-      <c r="T5" t="n">
-        <v>31920890.2302677</v>
-      </c>
-      <c r="U5" t="n">
-        <v>552523.047951993</v>
-      </c>
-      <c r="V5" t="n">
-        <v>574376.61230247</v>
-      </c>
-      <c r="W5" t="n">
-        <v>14076559.9468204</v>
-      </c>
-      <c r="X5" t="n">
-        <v>349526.541863732</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>45946620.4140439</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="inlineStr">
-        <is>
-          <t>2010年</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>5901402.35176607</v>
-      </c>
-      <c r="C6" t="n">
-        <v>10863143.7498387</v>
-      </c>
-      <c r="D6" t="n">
-        <v>25006235.8031267</v>
-      </c>
-      <c r="E6" t="n">
-        <v>5322716.20574124</v>
-      </c>
-      <c r="F6" t="n">
-        <v>1543379.38588046</v>
-      </c>
-      <c r="G6" t="n">
-        <v>33738121.3405569</v>
-      </c>
-      <c r="H6" t="n">
-        <v>260710157.582656</v>
-      </c>
-      <c r="I6" t="n">
-        <v>132774136.326873</v>
-      </c>
-      <c r="J6" t="n">
-        <v>30458423.6029235</v>
-      </c>
-      <c r="K6" t="n">
-        <v>386233884.721886</v>
-      </c>
-      <c r="L6" t="n">
-        <v>646944042.3045419</v>
-      </c>
-      <c r="M6" t="n">
-        <v>15900130.5612101</v>
-      </c>
-      <c r="N6" t="n">
-        <v>92523028.0839543</v>
-      </c>
-      <c r="O6" t="n">
-        <v>130478296.708135</v>
-      </c>
-      <c r="P6" t="n">
-        <v>11536557.8256662</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>2418364.39696661</v>
-      </c>
-      <c r="R6" t="n">
-        <v>10769412.2945327</v>
-      </c>
-      <c r="S6" t="n">
-        <v>5945095.72991625</v>
-      </c>
-      <c r="T6" t="n">
-        <v>35787666.9141248</v>
-      </c>
-      <c r="U6" t="n">
-        <v>267431.407089297</v>
-      </c>
-      <c r="V6" t="n">
-        <v>623433.5248962149</v>
-      </c>
-      <c r="W6" t="n">
-        <v>17458923.1893032</v>
-      </c>
-      <c r="X6" t="n">
-        <v>552713.307199797</v>
-      </c>
-      <c r="Y6" t="n">
-        <v>77075429.5948409</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="inlineStr">
-        <is>
-          <t>2012年</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>8847282.92059526</v>
-      </c>
-      <c r="C7" t="n">
-        <v>11528640.3195712</v>
-      </c>
-      <c r="D7" t="n">
-        <v>26006482.9022104</v>
-      </c>
-      <c r="E7" t="n">
-        <v>3532969.17971969</v>
-      </c>
-      <c r="F7" t="n">
-        <v>2775646.24890472</v>
-      </c>
-      <c r="G7" t="n">
-        <v>102216945.793162</v>
-      </c>
-      <c r="H7" t="n">
-        <v>361218975.291718</v>
-      </c>
-      <c r="I7" t="n">
-        <v>211793058.577217</v>
-      </c>
-      <c r="J7" t="n">
-        <v>38607529.0886709</v>
-      </c>
-      <c r="K7" t="n">
-        <v>593679321.910817</v>
-      </c>
-      <c r="L7" t="n">
-        <v>954898297.202534</v>
-      </c>
-      <c r="M7" t="n">
-        <v>38752735.9803848</v>
-      </c>
-      <c r="N7" t="n">
-        <v>171664854.441928</v>
-      </c>
-      <c r="O7" t="n">
-        <v>171613879.803</v>
-      </c>
-      <c r="P7" t="n">
-        <v>12855928.0655874</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>3573268.74684359</v>
-      </c>
-      <c r="R7" t="n">
-        <v>10106857.4500028</v>
-      </c>
-      <c r="S7" t="n">
-        <v>3203238.23166723</v>
-      </c>
-      <c r="T7" t="n">
-        <v>32417396.3174458</v>
-      </c>
-      <c r="U7" t="n">
-        <v>39254.652675929</v>
-      </c>
-      <c r="V7" t="n">
-        <v>392416.565620165</v>
-      </c>
-      <c r="W7" t="n">
-        <v>31590409.9673733</v>
-      </c>
-      <c r="X7" t="n">
-        <v>148284.284278398</v>
-      </c>
-      <c r="Y7" t="n">
-        <v>73231217.6656754</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>2015年</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>12779649.307012</v>
-      </c>
-      <c r="C8" t="n">
-        <v>17913782.3077949</v>
-      </c>
-      <c r="D8" t="n">
-        <v>35940051.8881274</v>
-      </c>
-      <c r="E8" t="n">
-        <v>4163458.12078695</v>
-      </c>
-      <c r="F8" t="n">
-        <v>3477952.32957206</v>
-      </c>
-      <c r="G8" t="n">
-        <v>199752874.889128</v>
-      </c>
-      <c r="H8" t="n">
-        <v>567571358.612422</v>
-      </c>
-      <c r="I8" t="n">
-        <v>364285622.608139</v>
-      </c>
-      <c r="J8" t="n">
-        <v>38885929.3660129</v>
-      </c>
-      <c r="K8" t="n">
-        <v>783404308.911333</v>
-      </c>
-      <c r="L8" t="n">
-        <v>1350975667.52376</v>
-      </c>
-      <c r="M8" t="n">
-        <v>58011486.1657954</v>
-      </c>
-      <c r="N8" t="n">
-        <v>164099052.157782</v>
-      </c>
-      <c r="O8" t="n">
-        <v>216133704.7794</v>
-      </c>
-      <c r="P8" t="n">
-        <v>21301494.0153628</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>3365905.0485397</v>
-      </c>
-      <c r="R8" t="n">
-        <v>11032543.6747755</v>
-      </c>
-      <c r="S8" t="n">
-        <v>4215471.37364968</v>
-      </c>
-      <c r="T8" t="n">
-        <v>48206065.0485846</v>
-      </c>
-      <c r="U8" t="n">
-        <v>26612.0678674807</v>
-      </c>
-      <c r="V8" t="n">
-        <v>449023.063812559</v>
-      </c>
-      <c r="W8" t="n">
-        <v>45711125.9917894</v>
-      </c>
-      <c r="X8" t="n">
-        <v>158945.703131913</v>
-      </c>
-      <c r="Y8" t="n">
         <v>101064917.616691</v>
       </c>
     </row>
